--- a/O04e/data/O04e.xlsx
+++ b/O04e/data/O04e.xlsx
@@ -5,30 +5,40 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicho\Labs\OO4e\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edhar\Desktop\mydocs\Lab2\O04e\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BCE939-0A2C-47A7-A093-DB523C9B66B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35625A3-0018-4D63-BD5A-1C5342DAC812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task1" sheetId="1" r:id="rId1"/>
-    <sheet name="Test" sheetId="4" r:id="rId2"/>
-    <sheet name="task2_1" sheetId="2" r:id="rId3"/>
-    <sheet name="task2_2" sheetId="3" r:id="rId4"/>
+    <sheet name="task2_1" sheetId="2" r:id="rId2"/>
+    <sheet name="task2_2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>gamma</t>
   </si>
@@ -211,6 +221,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>g'</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -236,13 +271,23 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.413675241832865E-2"/>
+          <c:y val="0.10748917513680148"/>
+          <c:w val="0.87426841336800987"/>
+          <c:h val="0.80077804283019438"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -285,6 +330,12 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13633422969695222"/>
+                  <c:y val="0.14831177037721316"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -310,7 +361,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-DE"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -322,34 +373,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.2577319587628866</c:v>
+                  <c:v>0.74226804123711343</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3793103448275863</c:v>
+                  <c:v>0.6206896551724137</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1724137931034484</c:v>
+                  <c:v>0.82758620689655171</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2164502164502164</c:v>
+                  <c:v>0.78354978354978355</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1886792452830188</c:v>
+                  <c:v>0.81132075471698117</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2413793103448276</c:v>
+                  <c:v>0.75862068965517238</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2671755725190841</c:v>
+                  <c:v>0.73282442748091592</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3139013452914798</c:v>
+                  <c:v>0.68609865470852016</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3333333333333333</c:v>
+                  <c:v>0.66666666666666674</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1515151515151516</c:v>
+                  <c:v>0.84848484848484851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -466,7 +517,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="677384191"/>
@@ -528,7 +579,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="677388991"/>
@@ -569,7 +620,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -595,6 +646,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>b'</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -620,7 +696,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -669,6 +745,12 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14559114405936813"/>
+                  <c:y val="3.7878235166217959E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -694,7 +776,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-DE"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -706,34 +788,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.88</c:v>
+                  <c:v>-2.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6363636363636362</c:v>
+                  <c:v>-1.6363636363636362</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7999999999999989</c:v>
+                  <c:v>-4.7999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.62</c:v>
+                  <c:v>-3.62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3</c:v>
+                  <c:v>-4.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.1428571428571423</c:v>
+                  <c:v>-3.1428571428571423</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.742857142857142</c:v>
+                  <c:v>-2.7428571428571424</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1857142857142851</c:v>
+                  <c:v>-2.1857142857142855</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.6</c:v>
+                  <c:v>-5.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -850,7 +932,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="677977167"/>
@@ -912,7 +994,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="677981487"/>
@@ -953,393 +1035,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Test!$N$2:$N$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.7999999999999989</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.62</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.1428571428571423</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.742857142857142</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.88</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.1857142857142851</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.6363636363636362</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Test!$E$2:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>250</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2F13-4BA7-99B8-B56F3E4D5EBE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="875866639"/>
-        <c:axId val="875868559"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="875866639"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="875868559"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="875868559"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="875866639"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1430,46 +1126,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1987,522 +1643,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3059,15 +2199,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>667544</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76323</xdr:rowOff>
+      <xdr:colOff>1087265</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>174027</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>50007</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>81086</xdr:rowOff>
+      <xdr:colOff>466566</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>178790</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3087,47 +2227,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>536575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>396875</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{518BF39C-A055-A946-BEED-38B4DE5F598F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3401,8 +2500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3474,11 +2573,11 @@
         <v>691</v>
       </c>
       <c r="E2" s="1">
-        <f>ABS(B2-C2)-40</f>
+        <f>C2-B2-40</f>
         <v>229</v>
       </c>
       <c r="F2" s="1">
-        <f>ABS(D2-C2)+30</f>
+        <f>D2-C2+30</f>
         <v>432</v>
       </c>
       <c r="G2" s="5">
@@ -3495,20 +2594,20 @@
         <v>0.88</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K11" si="0">I2+J2</f>
-        <v>3.88</v>
+        <f>-(I2+J2)</f>
+        <v>-3.88</v>
       </c>
       <c r="L2" s="1">
         <f>K2/H2</f>
-        <v>3.88</v>
+        <v>-3.88</v>
       </c>
       <c r="M2">
         <f>(1+1/L2)</f>
-        <v>1.2577319587628866</v>
+        <v>0.74226804123711343</v>
       </c>
       <c r="N2">
         <f>1+L2</f>
-        <v>4.88</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -3525,18 +2624,18 @@
         <v>523</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E11" si="1">ABS(B3-C3)-40</f>
+        <f t="shared" ref="E3:E11" si="0">C3-B3-40</f>
         <v>250</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F11" si="2">ABS(D3-C3)+30</f>
+        <f t="shared" ref="F3:F11" si="1">D3-C3+30</f>
         <v>243</v>
       </c>
       <c r="G3" s="5">
         <v>11</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H11" si="3">G3*0.1</f>
+        <f t="shared" ref="H3:H11" si="2">G3*0.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="I3" s="5">
@@ -3546,20 +2645,20 @@
         <v>0.9</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" si="0"/>
-        <v>2.9</v>
+        <f t="shared" ref="K3:K11" si="3">-(I3+J3)</f>
+        <v>-2.9</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L11" si="4">K3/H3</f>
-        <v>2.6363636363636362</v>
+        <v>-2.6363636363636362</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M11" si="5">(1+1/L3)</f>
-        <v>1.3793103448275863</v>
+        <v>0.6206896551724137</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N11" si="6">1+L3</f>
-        <v>3.6363636363636362</v>
+        <v>-1.6363636363636362</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -3576,18 +2675,18 @@
         <v>1161</v>
       </c>
       <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+      <c r="F4" s="1">
         <f t="shared" si="1"/>
-        <v>205</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="2"/>
         <v>926</v>
       </c>
       <c r="G4" s="5">
         <v>4</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
       <c r="I4" s="5">
@@ -3597,20 +2696,20 @@
         <v>0.32</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="0"/>
-        <v>2.3199999999999998</v>
+        <f t="shared" si="3"/>
+        <v>-2.3199999999999998</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="4"/>
-        <v>5.7999999999999989</v>
+        <v>-5.7999999999999989</v>
       </c>
       <c r="M4">
         <f t="shared" si="5"/>
-        <v>1.1724137931034484</v>
+        <v>0.82758620689655171</v>
       </c>
       <c r="N4">
         <f t="shared" si="6"/>
-        <v>6.7999999999999989</v>
+        <v>-4.7999999999999989</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -3627,18 +2726,18 @@
         <v>911</v>
       </c>
       <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+      <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>215</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="2"/>
         <v>666</v>
       </c>
       <c r="G5" s="5">
         <v>5</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="I5" s="5">
@@ -3648,20 +2747,20 @@
         <v>0.31</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="0"/>
-        <v>2.31</v>
+        <f t="shared" si="3"/>
+        <v>-2.31</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="4"/>
-        <v>4.62</v>
+        <v>-4.62</v>
       </c>
       <c r="M5">
         <f t="shared" si="5"/>
-        <v>1.2164502164502164</v>
+        <v>0.78354978354978355</v>
       </c>
       <c r="N5">
         <f t="shared" si="6"/>
-        <v>5.62</v>
+        <v>-3.62</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -3678,18 +2777,18 @@
         <v>1023</v>
       </c>
       <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>210</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="2"/>
         <v>783</v>
       </c>
       <c r="G6" s="5">
         <v>4</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
       <c r="I6" s="5">
@@ -3699,20 +2798,20 @@
         <v>0.12</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="0"/>
-        <v>2.12</v>
+        <f t="shared" si="3"/>
+        <v>-2.12</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="4"/>
-        <v>5.3</v>
+        <v>-5.3</v>
       </c>
       <c r="M6">
         <f t="shared" si="5"/>
-        <v>1.1886792452830188</v>
+        <v>0.81132075471698117</v>
       </c>
       <c r="N6">
         <f t="shared" si="6"/>
-        <v>6.3</v>
+        <v>-4.3</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -3729,18 +2828,18 @@
         <v>817</v>
       </c>
       <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>220</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="2"/>
         <v>567</v>
       </c>
       <c r="G7" s="5">
         <v>7</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="I7" s="5">
@@ -3750,20 +2849,20 @@
         <v>0.9</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="0"/>
-        <v>2.9</v>
+        <f t="shared" si="3"/>
+        <v>-2.9</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="4"/>
-        <v>4.1428571428571423</v>
+        <v>-4.1428571428571423</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>1.2413793103448276</v>
+        <v>0.75862068965517238</v>
       </c>
       <c r="N7">
         <f t="shared" si="6"/>
-        <v>5.1428571428571423</v>
+        <v>-3.1428571428571423</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -3780,18 +2879,18 @@
         <v>739</v>
       </c>
       <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>225</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="2"/>
         <v>484</v>
       </c>
       <c r="G8" s="5">
         <v>7</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="I8" s="5">
@@ -3801,20 +2900,20 @@
         <v>0.62</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="0"/>
-        <v>2.62</v>
+        <f t="shared" si="3"/>
+        <v>-2.62</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="4"/>
-        <v>3.7428571428571424</v>
+        <v>-3.7428571428571424</v>
       </c>
       <c r="M8">
         <f t="shared" si="5"/>
-        <v>1.2671755725190841</v>
+        <v>0.73282442748091592</v>
       </c>
       <c r="N8">
         <f t="shared" si="6"/>
-        <v>4.742857142857142</v>
+        <v>-2.7428571428571424</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -3831,18 +2930,18 @@
         <v>639</v>
       </c>
       <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+      <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>235</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="2"/>
         <v>374</v>
       </c>
       <c r="G9" s="5">
         <v>7</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="I9" s="5">
@@ -3852,20 +2951,20 @@
         <v>0.23</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="0"/>
-        <v>2.23</v>
+        <f t="shared" si="3"/>
+        <v>-2.23</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="4"/>
-        <v>3.1857142857142855</v>
+        <v>-3.1857142857142855</v>
       </c>
       <c r="M9">
         <f t="shared" si="5"/>
-        <v>1.3139013452914798</v>
+        <v>0.68609865470852016</v>
       </c>
       <c r="N9">
         <f t="shared" si="6"/>
-        <v>4.1857142857142851</v>
+        <v>-2.1857142857142855</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -3882,18 +2981,18 @@
         <v>592</v>
       </c>
       <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="2"/>
         <v>322</v>
       </c>
       <c r="G10" s="5">
         <v>7</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="I10" s="5">
@@ -3903,20 +3002,20 @@
         <v>0.1</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1</v>
+        <f t="shared" si="3"/>
+        <v>-2.1</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="M10">
         <f t="shared" si="5"/>
-        <v>1.3333333333333333</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="N10">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -3933,18 +3032,18 @@
         <v>1353</v>
       </c>
       <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="F11" s="1">
         <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="2"/>
         <v>1123</v>
       </c>
       <c r="G11" s="5">
         <v>5</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="I11" s="5">
@@ -3954,20 +3053,20 @@
         <v>0.3</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3</v>
+        <f t="shared" si="3"/>
+        <v>-3.3</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="4"/>
-        <v>6.6</v>
+        <v>-6.6</v>
       </c>
       <c r="M11">
         <f t="shared" si="5"/>
-        <v>1.1515151515151516</v>
+        <v>0.84848484848484851</v>
       </c>
       <c r="N11">
         <f t="shared" si="6"/>
-        <v>7.6</v>
+        <v>-5.6</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -4022,515 +3121,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8B59F2-E5A5-494B-8691-93D7C40FF97E}">
-  <dimension ref="A1:N11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>260</v>
-      </c>
-      <c r="D2">
-        <v>1353</v>
-      </c>
-      <c r="E2">
-        <v>200</v>
-      </c>
-      <c r="F2">
-        <v>1123</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>0.5</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <v>0.3</v>
-      </c>
-      <c r="K2">
-        <v>3.3</v>
-      </c>
-      <c r="L2">
-        <v>6.6</v>
-      </c>
-      <c r="M2">
-        <v>1.1515151515151516</v>
-      </c>
-      <c r="N2">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>265</v>
-      </c>
-      <c r="D3">
-        <v>1161</v>
-      </c>
-      <c r="E3">
-        <v>205</v>
-      </c>
-      <c r="F3">
-        <v>926</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>0.4</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>0.32</v>
-      </c>
-      <c r="K3">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="L3">
-        <v>5.7999999999999989</v>
-      </c>
-      <c r="M3">
-        <v>1.1724137931034484</v>
-      </c>
-      <c r="N3">
-        <v>6.7999999999999989</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>270</v>
-      </c>
-      <c r="D4">
-        <v>1023</v>
-      </c>
-      <c r="E4">
-        <v>210</v>
-      </c>
-      <c r="F4">
-        <v>783</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>0.4</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>0.12</v>
-      </c>
-      <c r="K4">
-        <v>2.12</v>
-      </c>
-      <c r="L4">
-        <v>5.3</v>
-      </c>
-      <c r="M4">
-        <v>1.1886792452830188</v>
-      </c>
-      <c r="N4">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>275</v>
-      </c>
-      <c r="D5">
-        <v>911</v>
-      </c>
-      <c r="E5">
-        <v>215</v>
-      </c>
-      <c r="F5">
-        <v>666</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>0.5</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>0.31</v>
-      </c>
-      <c r="K5">
-        <v>2.31</v>
-      </c>
-      <c r="L5">
-        <v>4.62</v>
-      </c>
-      <c r="M5">
-        <v>1.2164502164502164</v>
-      </c>
-      <c r="N5">
-        <v>5.62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>280</v>
-      </c>
-      <c r="D6">
-        <v>817</v>
-      </c>
-      <c r="E6">
-        <v>220</v>
-      </c>
-      <c r="F6">
-        <v>567</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-      <c r="H6">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>0.9</v>
-      </c>
-      <c r="K6">
-        <v>2.9</v>
-      </c>
-      <c r="L6">
-        <v>4.1428571428571423</v>
-      </c>
-      <c r="M6">
-        <v>1.2413793103448276</v>
-      </c>
-      <c r="N6">
-        <v>5.1428571428571423</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>285</v>
-      </c>
-      <c r="D7">
-        <v>739</v>
-      </c>
-      <c r="E7">
-        <v>225</v>
-      </c>
-      <c r="F7">
-        <v>484</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="H7">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>0.62</v>
-      </c>
-      <c r="K7">
-        <v>2.62</v>
-      </c>
-      <c r="L7">
-        <v>3.7428571428571424</v>
-      </c>
-      <c r="M7">
-        <v>1.2671755725190841</v>
-      </c>
-      <c r="N7">
-        <v>4.742857142857142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>289</v>
-      </c>
-      <c r="D8">
-        <v>691</v>
-      </c>
-      <c r="E8">
-        <v>229</v>
-      </c>
-      <c r="F8">
-        <v>432</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>0.88</v>
-      </c>
-      <c r="K8">
-        <v>3.88</v>
-      </c>
-      <c r="L8">
-        <v>3.88</v>
-      </c>
-      <c r="M8">
-        <v>1.2577319587628866</v>
-      </c>
-      <c r="N8">
-        <v>4.88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>295</v>
-      </c>
-      <c r="D9">
-        <v>639</v>
-      </c>
-      <c r="E9">
-        <v>235</v>
-      </c>
-      <c r="F9">
-        <v>374</v>
-      </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-      <c r="H9">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9">
-        <v>0.23</v>
-      </c>
-      <c r="K9">
-        <v>2.23</v>
-      </c>
-      <c r="L9">
-        <v>3.1857142857142855</v>
-      </c>
-      <c r="M9">
-        <v>1.3139013452914798</v>
-      </c>
-      <c r="N9">
-        <v>4.1857142857142851</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>300</v>
-      </c>
-      <c r="D10">
-        <v>592</v>
-      </c>
-      <c r="E10">
-        <v>240</v>
-      </c>
-      <c r="F10">
-        <v>322</v>
-      </c>
-      <c r="G10">
-        <v>7</v>
-      </c>
-      <c r="H10">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10">
-        <v>0.1</v>
-      </c>
-      <c r="K10">
-        <v>2.1</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="N10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>310</v>
-      </c>
-      <c r="D11">
-        <v>523</v>
-      </c>
-      <c r="E11">
-        <v>250</v>
-      </c>
-      <c r="F11">
-        <v>243</v>
-      </c>
-      <c r="G11">
-        <v>11</v>
-      </c>
-      <c r="H11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11">
-        <v>0.9</v>
-      </c>
-      <c r="K11">
-        <v>2.9</v>
-      </c>
-      <c r="L11">
-        <v>2.6363636363636362</v>
-      </c>
-      <c r="M11">
-        <v>1.3793103448275863</v>
-      </c>
-      <c r="N11">
-        <v>3.6363636363636362</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:N11">
-    <sortCondition ref="C2:C11"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14716211-1CEF-4D8C-82F2-1F8DC04EADD8}">
   <dimension ref="A1:L7"/>
   <sheetViews>
@@ -4817,11 +3407,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F8711B-A0B2-4BAE-B6A6-DEB5E57B7BD4}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>

--- a/O04e/data/O04e.xlsx
+++ b/O04e/data/O04e.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edhar\Desktop\mydocs\Lab2\O04e\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicho\Labs\Lab2\O04e\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35625A3-0018-4D63-BD5A-1C5342DAC812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654644BE-6AEE-4ECC-8575-AE71CE2235B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task1" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -271,7 +260,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -361,7 +350,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -373,25 +362,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.74226804123711343</c:v>
+                  <c:v>0.84848484848484851</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6206896551724137</c:v>
+                  <c:v>0.82758620689655171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82758620689655171</c:v>
+                  <c:v>0.81132075471698117</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.78354978354978355</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81132075471698117</c:v>
+                  <c:v>0.75862068965517238</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75862068965517238</c:v>
+                  <c:v>0.73282442748091592</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.73282442748091592</c:v>
+                  <c:v>0.74226804123711343</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.68609865470852016</c:v>
@@ -400,7 +389,7 @@
                   <c:v>0.66666666666666674</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.84848484848484851</c:v>
+                  <c:v>0.6206896551724137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -412,25 +401,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>229</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>205</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>210</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>220</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>225</c:v>
+                  <c:v>229</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>235</c:v>
@@ -439,7 +428,7 @@
                   <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>200</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -517,7 +506,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="677384191"/>
@@ -579,7 +568,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="677388991"/>
@@ -620,7 +609,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -696,7 +685,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -776,7 +765,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -788,25 +777,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-2.88</c:v>
+                  <c:v>-5.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.6363636363636362</c:v>
+                  <c:v>-4.7999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.7999999999999989</c:v>
+                  <c:v>-4.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-3.62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.3</c:v>
+                  <c:v>-3.1428571428571423</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.1428571428571423</c:v>
+                  <c:v>-2.7428571428571424</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.7428571428571424</c:v>
+                  <c:v>-2.88</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-2.1857142857142855</c:v>
@@ -815,7 +804,7 @@
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-5.6</c:v>
+                  <c:v>-1.6363636363636362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -827,25 +816,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>432</c:v>
+                  <c:v>1123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>243</c:v>
+                  <c:v>926</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>926</c:v>
+                  <c:v>783</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>783</c:v>
+                  <c:v>567</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>567</c:v>
+                  <c:v>484</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>484</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>374</c:v>
@@ -854,7 +843,7 @@
                   <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1123</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -932,7 +921,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="677977167"/>
@@ -994,7 +983,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="677981487"/>
@@ -1035,7 +1024,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2500,8 +2489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2561,155 +2550,155 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>20</v>
       </c>
       <c r="C2" s="2">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="D2" s="2">
-        <v>691</v>
+        <v>1353</v>
       </c>
       <c r="E2" s="1">
         <f>C2-B2-40</f>
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="F2" s="1">
         <f>D2-C2+30</f>
-        <v>432</v>
+        <v>1123</v>
       </c>
       <c r="G2" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2">
         <f>G2*0.1</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I2" s="5">
         <v>3</v>
       </c>
       <c r="J2" s="5">
-        <v>0.88</v>
+        <v>0.3</v>
       </c>
       <c r="K2" s="2">
         <f>-(I2+J2)</f>
-        <v>-3.88</v>
+        <v>-3.3</v>
       </c>
       <c r="L2" s="1">
         <f>K2/H2</f>
-        <v>-3.88</v>
+        <v>-6.6</v>
       </c>
       <c r="M2">
         <f>(1+1/L2)</f>
-        <v>0.74226804123711343</v>
+        <v>0.84848484848484851</v>
       </c>
       <c r="N2">
         <f>1+L2</f>
-        <v>-2.88</v>
+        <v>-5.6</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
+      <c r="A3" s="5">
+        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>20</v>
       </c>
       <c r="C3" s="2">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="D3" s="2">
-        <v>523</v>
+        <v>1161</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E11" si="0">C3-B3-40</f>
-        <v>250</v>
+        <f>C3-B3-40</f>
+        <v>205</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F11" si="1">D3-C3+30</f>
-        <v>243</v>
+        <f>D3-C3+30</f>
+        <v>926</v>
       </c>
       <c r="G3" s="5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H11" si="2">G3*0.1</f>
-        <v>1.1000000000000001</v>
+        <f>G3*0.1</f>
+        <v>0.4</v>
       </c>
       <c r="I3" s="5">
         <v>2</v>
       </c>
       <c r="J3" s="5">
-        <v>0.9</v>
+        <v>0.32</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K11" si="3">-(I3+J3)</f>
-        <v>-2.9</v>
+        <f t="shared" ref="K3:K11" si="0">-(I3+J3)</f>
+        <v>-2.3199999999999998</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L11" si="4">K3/H3</f>
-        <v>-2.6363636363636362</v>
+        <f>K3/H3</f>
+        <v>-5.7999999999999989</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M11" si="5">(1+1/L3)</f>
-        <v>0.6206896551724137</v>
+        <f>(1+1/L3)</f>
+        <v>0.82758620689655171</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N11" si="6">1+L3</f>
-        <v>-1.6363636363636362</v>
+        <f>1+L3</f>
+        <v>-4.7999999999999989</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
-        <v>3</v>
+      <c r="A4" s="1">
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>20</v>
       </c>
       <c r="C4" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D4" s="2">
-        <v>1161</v>
+        <v>1023</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>205</v>
+        <f>C4-B4-40</f>
+        <v>210</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="1"/>
-        <v>926</v>
+        <f>D4-C4+30</f>
+        <v>783</v>
       </c>
       <c r="G4" s="5">
         <v>4</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="2"/>
+        <f>G4*0.1</f>
         <v>0.4</v>
       </c>
       <c r="I4" s="5">
         <v>2</v>
       </c>
       <c r="J4" s="5">
-        <v>0.32</v>
+        <v>0.12</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="3"/>
-        <v>-2.3199999999999998</v>
+        <f t="shared" si="0"/>
+        <v>-2.12</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="4"/>
-        <v>-5.7999999999999989</v>
+        <f>K4/H4</f>
+        <v>-5.3</v>
       </c>
       <c r="M4">
-        <f t="shared" si="5"/>
-        <v>0.82758620689655171</v>
+        <f>(1+1/L4)</f>
+        <v>0.81132075471698117</v>
       </c>
       <c r="N4">
-        <f t="shared" si="6"/>
-        <v>-4.7999999999999989</v>
+        <f>1+L4</f>
+        <v>-4.3</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -2726,18 +2715,18 @@
         <v>911</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
+        <f>C5-B5-40</f>
         <v>215</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="1"/>
+        <f>D5-C5+30</f>
         <v>666</v>
       </c>
       <c r="G5" s="5">
         <v>5</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="2"/>
+        <f>G5*0.1</f>
         <v>0.5</v>
       </c>
       <c r="I5" s="5">
@@ -2747,173 +2736,173 @@
         <v>0.31</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>-2.31</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="4"/>
+        <f>K5/H5</f>
         <v>-4.62</v>
       </c>
       <c r="M5">
-        <f t="shared" si="5"/>
+        <f>(1+1/L5)</f>
         <v>0.78354978354978355</v>
       </c>
       <c r="N5">
-        <f t="shared" si="6"/>
+        <f>1+L5</f>
         <v>-3.62</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="D6" s="2">
-        <v>1023</v>
+        <v>817</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>210</v>
+        <f>C6-B6-40</f>
+        <v>220</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="1"/>
-        <v>783</v>
+        <f>D6-C6+30</f>
+        <v>567</v>
       </c>
       <c r="G6" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
+        <f>G6*0.1</f>
+        <v>0.70000000000000007</v>
       </c>
       <c r="I6" s="5">
         <v>2</v>
       </c>
       <c r="J6" s="5">
-        <v>0.12</v>
+        <v>0.9</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="3"/>
-        <v>-2.12</v>
+        <f t="shared" si="0"/>
+        <v>-2.9</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="4"/>
-        <v>-5.3</v>
+        <f>K6/H6</f>
+        <v>-4.1428571428571423</v>
       </c>
       <c r="M6">
-        <f t="shared" si="5"/>
-        <v>0.81132075471698117</v>
+        <f>(1+1/L6)</f>
+        <v>0.75862068965517238</v>
       </c>
       <c r="N6">
-        <f t="shared" si="6"/>
-        <v>-4.3</v>
+        <f>1+L6</f>
+        <v>-3.1428571428571423</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D7" s="2">
-        <v>817</v>
+        <v>739</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>220</v>
+        <f>C7-B7-40</f>
+        <v>225</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="1"/>
-        <v>567</v>
+        <f>D7-C7+30</f>
+        <v>484</v>
       </c>
       <c r="G7" s="5">
         <v>7</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="2"/>
+        <f>G7*0.1</f>
         <v>0.70000000000000007</v>
       </c>
       <c r="I7" s="5">
         <v>2</v>
       </c>
       <c r="J7" s="5">
-        <v>0.9</v>
+        <v>0.62</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="3"/>
-        <v>-2.9</v>
+        <f t="shared" si="0"/>
+        <v>-2.62</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="4"/>
-        <v>-4.1428571428571423</v>
+        <f>K7/H7</f>
+        <v>-3.7428571428571424</v>
       </c>
       <c r="M7">
-        <f t="shared" si="5"/>
-        <v>0.75862068965517238</v>
+        <f>(1+1/L7)</f>
+        <v>0.73282442748091592</v>
       </c>
       <c r="N7">
-        <f t="shared" si="6"/>
-        <v>-3.1428571428571423</v>
+        <f>1+L7</f>
+        <v>-2.7428571428571424</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2">
         <v>20</v>
       </c>
       <c r="C8" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D8" s="2">
-        <v>739</v>
+        <v>691</v>
       </c>
       <c r="E8" s="1">
+        <f>C8-B8-40</f>
+        <v>229</v>
+      </c>
+      <c r="F8" s="1">
+        <f>D8-C8+30</f>
+        <v>432</v>
+      </c>
+      <c r="G8" s="5">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2">
+        <f>G8*0.1</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>3</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>225</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="1"/>
-        <v>484</v>
-      </c>
-      <c r="G8" s="5">
-        <v>7</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="2"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="I8" s="5">
-        <v>2</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="3"/>
-        <v>-2.62</v>
+        <v>-3.88</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="4"/>
-        <v>-3.7428571428571424</v>
+        <f>K8/H8</f>
+        <v>-3.88</v>
       </c>
       <c r="M8">
-        <f t="shared" si="5"/>
-        <v>0.73282442748091592</v>
+        <f>(1+1/L8)</f>
+        <v>0.74226804123711343</v>
       </c>
       <c r="N8">
-        <f t="shared" si="6"/>
-        <v>-2.7428571428571424</v>
+        <f>1+L8</f>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -2930,18 +2919,18 @@
         <v>639</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
+        <f>C9-B9-40</f>
         <v>235</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="1"/>
+        <f>D9-C9+30</f>
         <v>374</v>
       </c>
       <c r="G9" s="5">
         <v>7</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="2"/>
+        <f>G9*0.1</f>
         <v>0.70000000000000007</v>
       </c>
       <c r="I9" s="5">
@@ -2951,19 +2940,19 @@
         <v>0.23</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>-2.23</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="4"/>
+        <f>K9/H9</f>
         <v>-3.1857142857142855</v>
       </c>
       <c r="M9">
-        <f t="shared" si="5"/>
+        <f>(1+1/L9)</f>
         <v>0.68609865470852016</v>
       </c>
       <c r="N9">
-        <f t="shared" si="6"/>
+        <f>1+L9</f>
         <v>-2.1857142857142855</v>
       </c>
     </row>
@@ -2981,18 +2970,18 @@
         <v>592</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
+        <f>C10-B10-40</f>
         <v>240</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="1"/>
+        <f>D10-C10+30</f>
         <v>322</v>
       </c>
       <c r="G10" s="5">
         <v>7</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="2"/>
+        <f>G10*0.1</f>
         <v>0.70000000000000007</v>
       </c>
       <c r="I10" s="5">
@@ -3002,71 +2991,71 @@
         <v>0.1</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>-2.1</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="4"/>
+        <f>K10/H10</f>
         <v>-3</v>
       </c>
       <c r="M10">
-        <f t="shared" si="5"/>
+        <f>(1+1/L10)</f>
         <v>0.66666666666666674</v>
       </c>
       <c r="N10">
-        <f t="shared" si="6"/>
+        <f>1+L10</f>
         <v>-2</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2">
         <v>20</v>
       </c>
       <c r="C11" s="2">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="D11" s="2">
-        <v>1353</v>
+        <v>523</v>
       </c>
       <c r="E11" s="1">
+        <f>C11-B11-40</f>
+        <v>250</v>
+      </c>
+      <c r="F11" s="1">
+        <f>D11-C11+30</f>
+        <v>243</v>
+      </c>
+      <c r="G11" s="5">
+        <v>11</v>
+      </c>
+      <c r="H11" s="2">
+        <f>G11*0.1</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K11" s="2">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="1"/>
-        <v>1123</v>
-      </c>
-      <c r="G11" s="5">
-        <v>5</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="I11" s="5">
-        <v>3</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" si="3"/>
-        <v>-3.3</v>
+        <v>-2.9</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="4"/>
-        <v>-6.6</v>
+        <f>K11/H11</f>
+        <v>-2.6363636363636362</v>
       </c>
       <c r="M11">
-        <f t="shared" si="5"/>
-        <v>0.84848484848484851</v>
+        <f>(1+1/L11)</f>
+        <v>0.6206896551724137</v>
       </c>
       <c r="N11">
-        <f t="shared" si="6"/>
-        <v>-5.6</v>
+        <f>1+L11</f>
+        <v>-1.6363636363636362</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -3115,6 +3104,9 @@
       <c r="G24" s="4"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N11">
+    <sortCondition ref="C2:C11"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3125,7 +3117,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3411,7 +3403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F8711B-A0B2-4BAE-B6A6-DEB5E57B7BD4}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
